--- a/results/gurobi_cplex_comparison/seed_50_k_30.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_30.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.019</v>
+        <v>0.831</v>
       </c>
       <c r="F2">
-        <v>0.034</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.034</v>
+        <v>1.19</v>
       </c>
       <c r="F3">
-        <v>0.056</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.014</v>
+        <v>1.595</v>
       </c>
       <c r="F4">
-        <v>0.035</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.016</v>
+        <v>2.073</v>
       </c>
       <c r="F5">
-        <v>0.038</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.048</v>
+        <v>2.672</v>
       </c>
       <c r="F6">
-        <v>0.066</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.141</v>
+        <v>3.379</v>
       </c>
       <c r="F7">
-        <v>0.112</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.026</v>
+        <v>3.994</v>
       </c>
       <c r="F8">
-        <v>0.051</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07099999999999999</v>
+        <v>4.798</v>
       </c>
       <c r="F9">
-        <v>0.147</v>
+        <v>1.086</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.038</v>
+        <v>5.55</v>
       </c>
       <c r="F10">
-        <v>0.08599999999999999</v>
+        <v>1.197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.035</v>
+        <v>6.481</v>
       </c>
       <c r="F11">
-        <v>0.058</v>
+        <v>1.318</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.193</v>
+        <v>7.543</v>
       </c>
       <c r="F12">
-        <v>99.515</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.059</v>
+        <v>8.532999999999999</v>
       </c>
       <c r="F13">
-        <v>88.955</v>
+        <v>114.169</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.067</v>
+        <v>9.571999999999999</v>
       </c>
       <c r="F14">
-        <v>177.2</v>
+        <v>97.815</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.062</v>
+        <v>10.686</v>
       </c>
       <c r="F15">
-        <v>79.75</v>
+        <v>88.23099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.21</v>
+        <v>12.084</v>
       </c>
       <c r="F16">
-        <v>93.354</v>
+        <v>109.11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.439</v>
+        <v>13.635</v>
       </c>
       <c r="F17">
-        <v>118.242</v>
+        <v>90.59099999999999</v>
       </c>
     </row>
   </sheetData>
